--- a/matematicas financieras/ejercicios/prestamosFrances.xlsx
+++ b/matematicas financieras/ejercicios/prestamosFrances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkspaceTutorialPython\matematicas financieras\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C22D8-6ACF-44CD-8E07-D928DFF4B6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04973F1A-2306-4ACC-BC19-F8FA1140746C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12915" yWindow="285" windowWidth="15060" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Capital</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>duracion</t>
+  </si>
+  <si>
+    <t>cuota</t>
   </si>
 </sst>
 </file>
@@ -856,7 +859,7 @@
   <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7">
-        <v>1500</v>
+        <v>60000</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -893,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="27" t="s">
@@ -901,7 +904,7 @@
       </c>
       <c r="E4" s="28">
         <f>(POWER((1+(B5)),(1/E3))-1)*100</f>
-        <v>5.8300524425836331</v>
+        <v>1.705457080728956</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -909,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10">
-        <v>0.12</v>
+        <v>3.44E-2</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -919,9 +922,15 @@
       </c>
       <c r="B6" s="13">
         <f>((1-POWER(1+B5,-B4)))/B5</f>
-        <v>5.650223028410867</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>5.3390708777796787</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f>B3/B6</f>
+        <v>11237.910373078203</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
@@ -950,19 +959,19 @@
       </c>
       <c r="B9" s="15">
         <f>B3/B6</f>
-        <v>265.47624623976606</v>
+        <v>11237.910373078203</v>
       </c>
       <c r="C9" s="16">
         <f>B9-D9</f>
-        <v>85.476246239766056</v>
+        <v>9173.9103730782026</v>
       </c>
       <c r="D9" s="15">
         <f>B3*B5*1</f>
-        <v>180</v>
+        <v>2064</v>
       </c>
       <c r="E9" s="18">
         <f>B3-C9</f>
-        <v>1414.5237537602338</v>
+        <v>50826.089626921799</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,19 +980,19 @@
       </c>
       <c r="B10" s="15">
         <f>B9</f>
-        <v>265.47624623976606</v>
+        <v>11237.910373078203</v>
       </c>
       <c r="C10" s="16">
         <f>B10-D10</f>
-        <v>95.73339578853799</v>
+        <v>9489.4928899120932</v>
       </c>
       <c r="D10" s="15">
         <f>E9*$B$5*1</f>
-        <v>169.74285045122807</v>
+        <v>1748.4174831661098</v>
       </c>
       <c r="E10" s="18">
         <f>E9-C10</f>
-        <v>1318.7903579716958</v>
+        <v>41336.596737009706</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -992,19 +1001,19 @@
       </c>
       <c r="B11" s="15">
         <f t="shared" ref="B11:B17" si="0">B10</f>
-        <v>265.47624623976606</v>
+        <v>11237.910373078203</v>
       </c>
       <c r="C11" s="16">
         <f t="shared" ref="C11:C18" si="1">B11-D11</f>
-        <v>107.22140328316257</v>
+        <v>9815.9314453250681</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" ref="D11:D18" si="2">E10*$B$5*1</f>
-        <v>158.25484295660348</v>
+        <v>1421.9789277531338</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" ref="E11:E17" si="3">E10-C11</f>
-        <v>1211.5689546885333</v>
+        <v>31520.665291684636</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1013,19 +1022,19 @@
       </c>
       <c r="B12" s="15">
         <f t="shared" si="0"/>
-        <v>265.47624623976606</v>
+        <v>11237.910373078203</v>
       </c>
       <c r="C12" s="16">
         <f t="shared" si="1"/>
-        <v>120.08797167714206</v>
+        <v>10153.599487044252</v>
       </c>
       <c r="D12" s="15">
         <f t="shared" si="2"/>
-        <v>145.38827456262399</v>
+        <v>1084.3108860339514</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" si="3"/>
-        <v>1091.4809830113911</v>
+        <v>21367.065804640384</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1034,19 +1043,19 @@
       </c>
       <c r="B13" s="15">
         <f t="shared" si="0"/>
-        <v>265.47624623976606</v>
+        <v>11237.910373078203</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" si="1"/>
-        <v>134.49852827839914</v>
+        <v>10502.883309398574</v>
       </c>
       <c r="D13" s="15">
         <f t="shared" si="2"/>
-        <v>130.97771796136692</v>
+        <v>735.02706367962924</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="3"/>
-        <v>956.98245473299198</v>
+        <v>10864.18249524181</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1055,19 +1064,19 @@
       </c>
       <c r="B14" s="15">
         <f t="shared" si="0"/>
-        <v>265.47624623976606</v>
+        <v>11237.910373078203</v>
       </c>
       <c r="C14" s="16">
         <f t="shared" si="1"/>
-        <v>150.63835167180702</v>
+        <v>10864.182495241885</v>
       </c>
       <c r="D14" s="15">
         <f t="shared" si="2"/>
-        <v>114.83789456795904</v>
+        <v>373.72787783631827</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" si="3"/>
-        <v>806.34410306118502</v>
+        <v>-7.4578565545380116E-11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1076,19 +1085,19 @@
       </c>
       <c r="B15" s="15">
         <f t="shared" si="0"/>
-        <v>265.47624623976606</v>
+        <v>11237.910373078203</v>
       </c>
       <c r="C15" s="16">
         <f t="shared" si="1"/>
-        <v>168.71495387242385</v>
+        <v>11237.910373078204</v>
       </c>
       <c r="D15" s="15">
         <f t="shared" si="2"/>
-        <v>96.761292367342193</v>
+        <v>-2.5655026547610762E-12</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" si="3"/>
-        <v>637.62914918876118</v>
+        <v>-11237.910373078279</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,19 +1106,19 @@
       </c>
       <c r="B16" s="15">
         <f t="shared" si="0"/>
-        <v>265.47624623976606</v>
+        <v>11237.910373078203</v>
       </c>
       <c r="C16" s="16">
         <f t="shared" si="1"/>
-        <v>188.96074833711472</v>
+        <v>11624.494489912095</v>
       </c>
       <c r="D16" s="15">
         <f t="shared" si="2"/>
-        <v>76.515497902651333</v>
+        <v>-386.58411683389278</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" si="3"/>
-        <v>448.66840085164642</v>
+        <v>-22862.404862990374</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1118,19 +1127,19 @@
       </c>
       <c r="B17" s="15">
         <f t="shared" si="0"/>
-        <v>265.47624623976606</v>
+        <v>11237.910373078203</v>
       </c>
       <c r="C17" s="16">
         <f t="shared" si="1"/>
-        <v>211.63603813756848</v>
+        <v>12024.377100365071</v>
       </c>
       <c r="D17" s="15">
         <f t="shared" si="2"/>
-        <v>53.840208102197572</v>
+        <v>-786.46672728686883</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" si="3"/>
-        <v>237.03236271407795</v>
+        <v>-34886.781963355446</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,19 +1148,19 @@
       </c>
       <c r="B18" s="24">
         <f t="shared" ref="B18" si="4">B17</f>
-        <v>265.47624623976606</v>
+        <v>11237.910373078203</v>
       </c>
       <c r="C18" s="25">
         <f t="shared" si="1"/>
-        <v>237.0323627140767</v>
+        <v>12438.01567261763</v>
       </c>
       <c r="D18" s="24">
         <f t="shared" si="2"/>
-        <v>28.443883525689351</v>
+        <v>-1200.1052995394273</v>
       </c>
       <c r="E18" s="26">
         <f t="shared" ref="E18" si="5">E17-C18</f>
-        <v>1.2505552149377763E-12</v>
+        <v>-47324.797635973075</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
